--- a/pred_ohlcv/54_21/2020-01-16 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TRX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-1400220.141238691</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1413480.907810921</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1811848.241343881</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2778797.36935612</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10150015.79519411</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>9582381.455794109</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>9865682.55179411</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>9858952.55179411</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8884010.27329411</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>9914802.966902751</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10015728.31380275</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10015728.31380275</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9650269.380702751</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9686753.849802751</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9686753.849802751</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9794753.849802751</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9881091.241502751</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10301857.34400275</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10749768.22830275</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10671475.11250275</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10706719.07240275</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10592311.60364985</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10467435.32744985</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10467435.32744985</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>11045788.72879695</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>11934886.12099695</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>13447408.08439695</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>17443484.56479695</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18959944.86659695</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>18220552.39089695</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>19366546.24149695</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>19621779.30279695</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>23876987.02159695</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>23876987.02159695</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24377184.63529695</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24377184.63529695</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>23594180.52549695</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>22821048.21159695</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>22493935.89029695</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>21232298.28149695</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>21552887.54149695</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>23319034.68299695</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>22788323.05819695</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>22805603.41939695</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>22246034.84619695</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>22450371.93529695</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>23004550.41879695</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>23327718.35400728</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>23048299.61540728</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>23273721.27690728</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>23273721.27690728</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>23167857.18640728</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>23146419.35170728</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>23146419.35170728</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>23667069.96960727</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>23412280.44490727</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>23459390.44760728</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>22376286.95980728</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>22238605.16680728</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>22231875.16680728</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>22279993.17120728</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>22284311.91840728</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>22133808.06420727</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>21765182.90362472</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>21786035.32562472</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>21841396.10119058</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>22482689.67921063</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>23165499.03937304</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>23104018.03937304</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>23371938.54747304</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>23071938.54747304</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>23071938.54747304</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>23137655.58497304</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>23165386.34027305</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>23150194.67707305</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>19623509.33357305</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>19637024.14387305</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>19637024.14387305</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>19634724.14387305</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>19872787.40397305</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>19872787.40397305</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>19648964.27787305</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>19652175.86357305</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>19755690.35794708</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>21245374.41134708</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>21245374.41134708</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>21708098.3896866</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>21021212.9330866</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>20906028.3071866</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>24538498.04882734</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>27766591.17648105</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>27766591.17648105</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>28061137.10793944</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>28021904.07513944</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>28021904.07513944</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>29382591.27413058</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>29600928.00433058</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>29811215.14363058</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>31452355.67653058</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>32074471.82509653</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>32074471.82509653</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>32681740.36118086</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>31979245.68928086</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>31659992.69239363</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>32788699.5964064</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>32570685.17045254</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>32365231.38015254</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>33763301.95155254</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>34638335.40590446</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>37133925.61760446</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>40107602.47130445</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>41130455.07460445</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>43260146.25695001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>42677484.12734959</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>43041470.91994959</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>43786094.30524959</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>45575562.74521779</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>46006022.67548341</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>46006022.67548341</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>47039210.52328341</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>50166444.41833763</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>50101473.29613763</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>51045237.57146865</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>44792198.91292538</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>43705381.62152538</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>42688064.53552538</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>40639550.99082538</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>42389569.90392538</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>42947759.1859914</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>43075516.6946914</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>43294449.27019139</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>43147466.11251479</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43437770.02659473</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>43305736.23989473</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>43387990.85869472</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>43910543.37599473</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>44184041.35149473</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>44115434.42952872</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>44912336.57458527</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>44980090.88348527</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>44980090.88348527</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>44944375.75558527</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>44944375.75558527</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>44858197.16461363</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>44858197.16461363</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>43726988.43941363</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>43726988.43941363</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>45005580.73871363</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>44922006.18481363</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>45050056.14204723</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>45050056.14204723</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>44912989.46124724</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>38097090.52064604</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>38097570.36514603</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>38097365.19094604</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>38295065.09194604</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>38315293.15924603</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>38315293.15924603</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>38310508.59204604</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>37912193.28694604</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>38034504.73804604</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>37790992.79779305</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>36812661.79689305</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>36613270.14109305</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>37077782.64739305</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>37059633.92679305</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>29596702.84102399</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>29601694.29562399</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>29578705.62532399</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>30131570.19468242</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>30212910.07948242</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>33167824.48921166</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>33149758.25451165</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>33249760.06065939</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>33144349.52855939</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>34085625.41881166</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>31768538.06041166</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>32334040.07821166</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>33167971.25871166</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>33110197.94851166</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>32987276.75261166</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>33138429.69101166</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>33138429.69101166</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>33146380.52041166</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>33160944.24181166</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>33079978.65491166</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>32916792.86041166</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>32857539.11611166</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>32759619.62071166</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>32732452.64791166</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>32845862.93751166</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>32514362.58691166</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>32503189.43727748</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>32502655.24927748</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>32529942.07038473</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>32820912.37598472</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>32820993.10118473</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>32784680.24671594</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>32700155.02858907</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>32700155.02858907</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>32676912.63578907</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>32677402.94578907</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>32683951.50808907</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>32683951.50808907</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>32396222.46078907</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>32095896.91758907</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>32162795.28308907</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>32135054.28308907</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>32135054.28308907</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>32158343.32968907</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>32128031.38088907</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>32030726.56023155</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>32032650.13723155</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>32007872.93223155</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>32617023.82508614</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>32838970.14418614</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>32702866.79158614</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>33032270.09163605</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>33063315.68103605</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>33063315.68103605</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>32962005.52743605</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>33312366.31053605</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>33160458.44593605</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>33208854.65727255</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>33208854.65727255</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>33389535.10207255</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>34362885.76817255</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>34249501.29297256</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>34364848.56297256</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>34334187.62557256</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>34179986.90617256</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>34175978.58157256</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>34670976.82157256</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>34147870.09777255</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>34068988.09777255</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>34052811.49087255</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>34153588.95437256</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>34009124.72817256</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>34069285.65977255</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>34069285.65977255</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>33892094.25107256</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>33849419.04321436</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>33863540.21831436</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>33863540.21831436</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>32722120.04431436</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>32722120.04431436</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>33008515.81851436</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>32966898.81171436</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>32966898.81171436</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>33798285.31351436</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>34109249.03831436</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>34109249.03831436</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>34107908.90821436</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>34107943.76461436</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>34107943.76461436</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>34224329.52071436</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>34224329.52071436</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>34537279.12781436</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>54995278.71257652</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>56137524.77607653</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>55572237.15135537</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>57604982.86051767</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>56308046.11528616</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>56756941.71909337</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>56657595.33629338</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>57400293.05630194</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>64245168.20300194</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>61839865.53790194</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>61143551.27820194</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>60970726.92190194</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>61202314.60120194</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>62247918.04710194</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>61162770.40250195</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>59232618.88580195</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>59409012.42560195</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>58952113.42300195</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>59079245.62414307</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>59417204.50364307</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>58382222.60144307</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>58202272.42316186</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>58243372.00463565</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>58203354.79653565</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>58203354.79653565</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>57558639.06688066</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>57087419.41718066</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>56552311.16905681</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>56653541.84475681</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>55488726.19185681</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>54218165.94195681</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>56416753.75707435</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>56185545.53877435</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>56209931.43737435</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>56134278.61257435</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>58481636.46907434</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>58310585.39177434</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>58663055.37135674</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>58860540.41902357</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>58648578.93942358</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>58922897.23442358</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>58834279.68582357</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>58663549.90232357</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>58791464.26272357</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>58423012.96882357</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>58439018.00972357</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>58557074.83396359</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>58560277.30426358</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>58525289.78086358</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>58536777.42306358</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>58470284.65597593</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>58434370.33197593</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>58044471.45177592</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>58004471.45177592</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>58144450.05897592</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>58218091.38727592</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>58116922.32087592</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>58049797.32087592</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>58049797.32087592</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>58114024.68507592</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>58214647.85467593</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>58210303.30287593</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>58065669.44247593</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>57573372.78287593</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>57320117.03137593</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>57320209.34577593</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>58758980.87127593</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>58758980.87127593</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>58666336.15667593</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>58841569.32607593</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>59041144.92257594</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>58985330.02157594</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>58945471.02707594</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>58897130.77937594</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>59071751.46637594</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>59428386.01417594</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>59413892.19477594</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>59464295.28467594</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>59589558.28457594</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>59489558.28457594</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>59533969.80272644</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>59462412.54792644</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>59464318.04002644</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>59464247.04002644</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>59485069.06485443</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>59485069.06485443</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>59481058.35175443</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>59494839.43785442</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>59494839.43785442</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>59489903.39335442</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>59491745.47326019</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>59394692.65866019</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>58206491.97336019</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>58206491.97336019</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>57978543.18196019</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>57694430.57176019</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>57679649.41256019</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>57839801.06586019</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>58121083.28586019</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>58010748.91966019</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>57950765.62546019</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>58143316.59236018</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>58196960.49236018</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>58684450.67995442</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>58684450.67995442</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>58667716.06539045</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>58043770.12179045</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>57884030.21894298</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>57782624.70444299</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>57619953.51352502</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>57619953.51352502</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>57872044.59202503</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>57872044.59202503</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>57761780.14062503</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>57159813.57372503</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>57156847.75102503</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TRX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-1400220.141238691</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1413480.907810921</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>97308.62825611947</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10150015.79519411</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>9582381.455794109</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>9865682.55179411</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>9858952.55179411</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8884010.27329411</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>9914802.966902751</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10015728.31380275</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10015728.31380275</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9650269.380702751</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9686753.849802751</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9686753.849802751</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9794753.849802751</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9881091.241502751</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10301857.34400275</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10749768.22830275</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10671475.11250275</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10706719.07240275</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10592311.60364985</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10467435.32744985</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10467435.32744985</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>11045788.72879695</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>11934886.12099695</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>13447408.08439695</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>17443484.56479695</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18959944.86659695</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>18220552.39089695</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>19366546.24149695</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>19621779.30279695</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>23876987.02159695</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>23876987.02159695</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24377184.63529695</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24377184.63529695</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>23594180.52549695</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>22821048.21159695</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>22493935.89029695</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>21232298.28149695</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>21552887.54149695</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>23319034.68299695</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>22788323.05819695</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>22805603.41939695</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>22246034.84619695</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>22450371.93529695</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>23004550.41879695</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>23327718.35400728</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>23048299.61540728</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>23273721.27690728</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>23273721.27690728</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>23167857.18640728</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>23146419.35170728</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>23146419.35170728</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>23667069.96960727</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>23412280.44490727</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>23459390.44760728</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>22376286.95980728</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>22238605.16680728</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>22231875.16680728</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>22279993.17120728</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>22284311.91840728</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>22133808.06420727</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>21765182.90362472</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>21786035.32562472</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>21841396.10119058</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>22482689.67921063</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>23165499.03937304</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>23104018.03937304</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>23371938.54747304</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>23071938.54747304</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>23071938.54747304</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>23137655.58497304</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>23165386.34027305</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>23150194.67707305</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>19623509.33357305</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>19637024.14387305</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>19637024.14387305</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>19634724.14387305</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>19872787.40397305</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>19872787.40397305</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>19648964.27787305</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>19652175.86357305</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>19755690.35794708</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>21245374.41134708</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>21245374.41134708</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>21708098.3896866</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>21021212.9330866</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>20906028.3071866</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>24538498.04882734</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>27766591.17648105</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>27766591.17648105</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>28061137.10793944</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>28021904.07513944</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>28021904.07513944</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>29382591.27413058</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>29600928.00433058</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>29811215.14363058</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>31452355.67653058</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>32074471.82509653</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>32074471.82509653</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>32681740.36118086</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>31979245.68928086</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>31659992.69239363</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>32788699.5964064</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>32570685.17045254</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>32365231.38015254</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>33763301.95155254</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>34638335.40590446</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>37133925.61760446</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>40107602.47130445</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>41130455.07460445</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>43260146.25695001</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>42677484.12734959</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>43041470.91994959</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>43786094.30524959</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>45575562.74521779</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>46006022.67548341</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>46006022.67548341</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>47039210.52328341</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>50166444.41833763</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>50101473.29613763</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>52603099.55881903</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>50723789.38612539</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>49387335.38352539</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>50408846.89842539</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>44792198.91292538</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>43705381.62152538</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>42688064.53552538</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>40639550.99082538</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>42389569.90392538</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>42947759.1859914</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>43075516.6946914</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>43294449.27019139</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>43147466.11251479</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43437770.02659473</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>43305736.23989473</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>43387990.85869472</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>43910543.37599473</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>44184041.35149473</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>44115434.42952872</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>44912336.57458527</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>44980090.88348527</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>44980090.88348527</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>44944375.75558527</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>44944375.75558527</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>44858197.16461363</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>44858197.16461363</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>43726988.43941363</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>43726988.43941363</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>45005580.73871363</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>44922006.18481363</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>45050056.14204723</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>45050056.14204723</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>44912989.46124724</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>38097090.52064604</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>38097570.36514603</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>38097365.19094604</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>38295065.09194604</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>38315293.15924603</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>38315293.15924603</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>38310508.59204604</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>37912193.28694604</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>38034504.73804604</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>37790992.79779305</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>36812661.79689305</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>36613270.14109305</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>37077782.64739305</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>37059633.92679305</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>29596702.84102399</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>29601694.29562399</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>29578705.62532399</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>30131570.19468242</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>30212910.07948242</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>33167824.48921166</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>33149758.25451165</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>33249760.06065939</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>33144349.52855939</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>34085625.41881166</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>31768538.06041166</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>32334040.07821166</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>33167971.25871166</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>33110197.94851166</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>32987276.75261166</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>33138429.69101166</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>33138429.69101166</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>33146380.52041166</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>33160944.24181166</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>33079978.65491166</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>32916792.86041166</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>32857539.11611166</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>32759619.62071166</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>32732452.64791166</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>32845862.93751166</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>32514362.58691166</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>32503189.43727748</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>32502655.24927748</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>32529942.07038473</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>32820912.37598472</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>32820993.10118473</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>32784680.24671594</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>32700155.02858907</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>32700155.02858907</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>32676912.63578907</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>32677402.94578907</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>32683951.50808907</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>32683951.50808907</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>32396222.46078907</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>32095896.91758907</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>32162795.28308907</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>32135054.28308907</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>32135054.28308907</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>32158343.32968907</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>32128031.38088907</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>32030726.56023155</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>32032650.13723155</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>32007872.93223155</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>32617023.82508614</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>32838970.14418614</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>32702866.79158614</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>33032270.09163605</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>33063315.68103605</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>33063315.68103605</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>32962005.52743605</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>33312366.31053605</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>33160458.44593605</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>33208854.65727255</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>33208854.65727255</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>33389535.10207255</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>34362885.76817255</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>34249501.29297256</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>34364848.56297256</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>34334187.62557256</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>34179986.90617256</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>34175978.58157256</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>34670976.82157256</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>34147870.09777255</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>34068988.09777255</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>34052811.49087255</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>34153588.95437256</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>34009124.72817256</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>34069285.65977255</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>34069285.65977255</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>33892094.25107256</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>33849419.04321436</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>33863540.21831436</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>33863540.21831436</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>32722120.04431436</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>32722120.04431436</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>33008515.81851436</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>32966898.81171436</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>32966898.81171436</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>33798285.31351436</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>34109249.03831436</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>34109249.03831436</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>34107908.90821436</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>34107943.76461436</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>34107943.76461436</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>34224329.52071436</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>34224329.52071436</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>34537279.12781436</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>44733149.69316962</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>46630633.34786963</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>56117394.32256962</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>54995278.71257652</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>56137524.77607653</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>55572237.15135537</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>56663067.35721767</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>58304103.81881767</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>57604982.86051767</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>56308046.11528616</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>56756941.71909337</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>56657595.33629338</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>57400293.05630194</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>64245168.20300194</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>61839865.53790194</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>61143551.27820194</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>60970726.92190194</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>61202314.60120194</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>62247918.04710194</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>61162770.40250195</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>59232618.88580195</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>59409012.42560195</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>58952113.42300195</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>59079245.62414307</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>59417204.50364307</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>58382222.60144307</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>58202272.42316186</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>58243372.00463565</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>58203354.79653565</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>58203354.79653565</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>57558639.06688066</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>57087419.41718066</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>56552311.16905681</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>56653541.84475681</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>55488726.19185681</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>56337654.09072501</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>56337654.09072501</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>57434895.6028508</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>57434895.6028508</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>57444450.13735081</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>56990341.66149177</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>56258926.22639178</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>56530926.73751113</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>56521476.43111113</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>56294176.23391113</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>58481636.46907434</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>58310585.39177434</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>58663055.37135674</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>58860540.41902357</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>58648578.93942358</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>58922897.23442358</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>58834279.68582357</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>58663549.90232357</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>58791464.26272357</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>58423012.96882357</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>58439018.00972357</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>58557074.83396359</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>58560277.30426358</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>58525289.78086358</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>58536777.42306358</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>58470284.65597593</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>58434370.33197593</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>58044471.45177592</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>58004471.45177592</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>58144450.05897592</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>58218091.38727592</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>58116922.32087592</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>58049797.32087592</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>58945471.02707594</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
